--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\Projeto_Prog3_ADS_FMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9F4CE-6564-4B66-ABB4-059D0C6FD33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B9B3AD-2CFC-4378-B57E-0F49B0ACE419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,38 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Maria Silva</t>
   </si>
   <si>
-    <t>maria@email.com</t>
-  </si>
-  <si>
     <t>João Oliveira</t>
   </si>
   <si>
-    <t>joao@email.com</t>
-  </si>
-  <si>
     <t>Ana Souza</t>
   </si>
   <si>
-    <t>ana@email.com</t>
-  </si>
-  <si>
     <t>Pedro Rodrigues</t>
   </si>
   <si>
-    <t>pedro@email.com</t>
-  </si>
-  <si>
     <t>Carla Fernandes</t>
   </si>
   <si>
-    <t>carla@email.com</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -59,13 +44,19 @@
   </si>
   <si>
     <t>telefone</t>
+  </si>
+  <si>
+    <t>andremartinssc@gmail.com</t>
+  </si>
+  <si>
+    <t>andre.martins@aluno.fmpsc.edu.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -86,6 +77,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,15 +102,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -332,86 +333,93 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>11987654321</v>
+        <v>48998535958</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>21998765432</v>
+        <v>48998535958</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>31976543210</v>
+        <v>48998535958</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>41965432109</v>
+        <v>48998535958</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="1">
-        <v>51954321098</v>
+        <v>48998535958</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7ACF3D6C-787F-4478-89AB-4C815960A159}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{28AAC258-81E9-454A-AD6A-F14A58C9782A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{38DB7792-6574-4B7E-AD0C-8E0B300ECC87}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E6B4CB3F-60E6-4AFB-B7B5-E72021DAD4CC}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{DB2784FE-509D-4AC4-A87D-6AFAE84043D6}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>